--- a/app/data/absenteeism_data_40.xlsx
+++ b/app/data/absenteeism_data_40.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21411</v>
+        <v>15433</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Esther da Rocha</t>
+          <t>Renan Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>3266.24</v>
+        <v>7445.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35303</v>
+        <v>33779</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Júlia Costela</t>
+          <t>Pedro Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>6740.08</v>
+        <v>3636.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20223</v>
+        <v>10647</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matheus Silva</t>
+          <t>Dr. Levi Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,111 +555,111 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>11493.19</v>
+        <v>10316.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43356</v>
+        <v>83456</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitor Freitas</t>
+          <t>Sr. Luiz Miguel Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>9269.639999999999</v>
+        <v>7807.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37457</v>
+        <v>50626</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Júlia Correia</t>
+          <t>Dr. João Guilherme da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>4772.92</v>
+        <v>11729.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88070</v>
+        <v>93842</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pietro Cavalcanti</t>
+          <t>João Gabriel da Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>11688.67</v>
+        <v>3284.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98858</v>
+        <v>7541</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. João Pedro Pinto</t>
+          <t>Lívia Nunes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>7655.29</v>
+        <v>5632.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62352</v>
+        <v>37682</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Maria Clara Almeida</t>
+          <t>Enrico Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>4642.8</v>
+        <v>6535.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18684</v>
+        <v>52226</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clarice Moraes</t>
+          <t>Sr. Eduardo Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>10177.42</v>
+        <v>5110.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86477</v>
+        <v>87</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lara das Neves</t>
+          <t>Sophie Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>5557.54</v>
+        <v>10756.76</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_40.xlsx
+++ b/app/data/absenteeism_data_40.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10251</v>
+        <v>79064</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Alice Ribeiro</t>
+          <t>Mariane Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>10203.7</v>
+        <v>10382.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18648</v>
+        <v>3694</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Hugo Ramos</t>
+          <t>Sra. Maria Melo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>7207.62</v>
+        <v>3598.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68621</v>
+        <v>74242</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Moreira</t>
+          <t>Alexandre Gomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>5872.33</v>
+        <v>6270.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91938</v>
+        <v>15525</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lucas Jesus</t>
+          <t>Giovanna Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>10998.57</v>
+        <v>10367.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>93863</v>
+        <v>1397</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Kevin Costa</t>
+          <t>Dr. João Felipe da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>7358.88</v>
+        <v>8601.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16693</v>
+        <v>56926</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcelo Azevedo</t>
+          <t>Gustavo Henrique Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>12349.1</v>
+        <v>3340.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97001</v>
+        <v>94746</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Letícia Barbosa</t>
+          <t>Sra. Beatriz Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>6212.14</v>
+        <v>9358.940000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1638</v>
+        <v>41777</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Melissa da Mata</t>
+          <t>Dra. Heloísa Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>12099.81</v>
+        <v>2793.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34638</v>
+        <v>9787</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yago Fernandes</t>
+          <t>Alana Azevedo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>11897.87</v>
+        <v>5911.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69978</v>
+        <v>94754</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Ana Luiza Silveira</t>
+          <t>Maria Cecília Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>6101.72</v>
+        <v>6058.65</v>
       </c>
     </row>
   </sheetData>
